--- a/biology/Zoologie/Euthynnus_affinis/Euthynnus_affinis.xlsx
+++ b/biology/Zoologie/Euthynnus_affinis/Euthynnus_affinis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euthynnus affinis
 La Thonine orientale ou Kawakawa (Euthynnus affinis) est une espèce de poissons de la famille des scombridés.
@@ -512,10 +524,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce poisson mesure entre 40 et 100 cm de long, pour une moyenne de 60 centimètres. Le poids maximal est de 14 kg. 
-Le dos (quart arrière-supérieur) porte des bandes obliques sombres sur un fond métallisé. La première épine de la nageoire dorsale est beaucoup plus haute que les autres[1].
+Le dos (quart arrière-supérieur) porte des bandes obliques sombres sur un fond métallisé. La première épine de la nageoire dorsale est beaucoup plus haute que les autres.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se nourrit principalement de petits poissons mais aussi de crustacés, de céphalopodes et de gastéropodes, selon un régime très opportuniste.
 </t>
@@ -575,10 +591,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce qui vit en bancs mixtes à l'âge adulte, essentiellement au large mais jamais très loin des côtes, qu'elle rejoint ponctuellement[1].
-On la rencontre dans tout l'Indo-Pacifique tropical, entre 0 et 200 m de profondeur[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce qui vit en bancs mixtes à l'âge adulte, essentiellement au large mais jamais très loin des côtes, qu'elle rejoint ponctuellement.
+On la rencontre dans tout l'Indo-Pacifique tropical, entre 0 et 200 m de profondeur.
 </t>
         </is>
       </c>
